--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -1386,40 +1386,120 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>01/05/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M17" t="n">
+        <v>20</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -1502,22 +1502,62 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M19" t="n">
+        <v>20</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -1560,22 +1560,62 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M20" t="n">
+        <v>13</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>4</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -1618,22 +1618,62 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>24/05/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M21" t="n">
+        <v>9</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -1676,58 +1676,178 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/07/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>19/07/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>U. Magdalena</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23/07/2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -1850,22 +1850,62 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>29/07/2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>18</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -1908,22 +1908,62 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02/08/2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" t="n">
+        <v>14</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -1966,22 +1966,62 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>11/08/2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>13</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -2024,22 +2024,62 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>16/08/2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M28" t="n">
+        <v>8</v>
+      </c>
+      <c r="N28" t="n">
+        <v>11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -2082,22 +2082,62 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>23/08/2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M29" t="n">
+        <v>8</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -2140,22 +2140,62 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>30/08/2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M30" t="n">
+        <v>9</v>
+      </c>
+      <c r="N30" t="n">
+        <v>12</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -2198,22 +2198,62 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>06/09/2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M31" t="n">
+        <v>10</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -2256,22 +2256,62 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>15/09/2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="M32" t="n">
+        <v>7</v>
+      </c>
+      <c r="N32" t="n">
+        <v>13</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -2314,22 +2314,62 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -2372,22 +2372,62 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>27/09/2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Alianza</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M34" t="n">
+        <v>13</v>
+      </c>
+      <c r="N34" t="n">
+        <v>19</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -2430,40 +2430,120 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>05/10/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="M35" t="n">
+        <v>10</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>12/10/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M36" t="n">
+        <v>11</v>
+      </c>
+      <c r="N36" t="n">
+        <v>20</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -2546,22 +2546,62 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M37" t="n">
+        <v>8</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -2604,22 +2604,62 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>25/10/2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6</v>
+      </c>
+      <c r="N38" t="n">
+        <v>15</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -2662,22 +2662,62 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8</v>
+      </c>
+      <c r="N39" t="n">
+        <v>15</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -2720,40 +2720,120 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M40" t="n">
+        <v>6</v>
+      </c>
+      <c r="N40" t="n">
+        <v>16</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M41" t="n">
+        <v>12</v>
+      </c>
+      <c r="N41" t="n">
+        <v>14</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -632,22 +632,62 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>27/01/2026</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -690,22 +690,62 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>02/02/2026</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -748,22 +748,62 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07/02/2026</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -806,22 +806,62 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10/02/2026</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>

--- a/new-stats/llaneros-fc.xlsx
+++ b/new-stats/llaneros-fc.xlsx
@@ -864,22 +864,62 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14/02/2026</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
